--- a/results/RMR results/gamm_rmr_smoothers.xlsx
+++ b/results/RMR results/gamm_rmr_smoothers.xlsx
@@ -407,7 +407,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>2.70247789054359</v>
+        <v>2.7024773964703</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -418,13 +418,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4.70648846021375</v>
+        <v>4.7064884602138</v>
       </c>
       <c r="C3" t="n">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>4.93092885226014</v>
+        <v>4.93037465759432</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -435,13 +435,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>3.74611787839616</v>
+        <v>3.74611787839562</v>
       </c>
       <c r="C4" t="n">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2.44185242927745</v>
+        <v>2.4418525743158</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -452,13 +452,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>5.9125158205987</v>
+        <v>5.91251582059869</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>98.4383910144238</v>
+        <v>98.4380455656444</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -469,13 +469,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>3.90804337689461</v>
+        <v>3.90804337689459</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>61.5130135071897</v>
+        <v>61.5121300509742</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>2.97192998817223</v>
+        <v>2.97192998817157</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>92.0431681416206</v>
+        <v>92.0423001011262</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -503,13 +503,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>37.3777878792004</v>
+        <v>37.3777878792007</v>
       </c>
       <c r="C8" t="n">
         <v>54</v>
       </c>
       <c r="D8" t="n">
-        <v>6.39527422479185</v>
+        <v>6.39517169593533</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
